--- a/通知_単体テスト.xlsx
+++ b/通知_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337239D9-B5ED-49C4-958C-29C14B307E80}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{029D36EE-837F-42E9-A2E4-43A1DF266C2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -681,16 +681,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.「通知」ボタンを押す</t>
     <rPh sb="3" eb="5">
       <t>ツウチ</t>
@@ -738,6 +728,88 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホストを変更する</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットでメッセージが送信された場合、「イベント「○○」に新しいメッセージがあります。」の表示</t>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットで画像が送信された場合、「イベント「○○」に画像メッセージがあります。」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.チャットでメッセージを送信する</t>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.別のアカウントでログインし、ヘッダーの「通知」</t>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押す</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.チャットで画像メッセージを送信する</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベント「○○」に新しいメッセージがあります。」</t>
+  </si>
+  <si>
+    <t>「イベント「○○」に画像メッセージがあります。」</t>
   </si>
 </sst>
 </file>
@@ -839,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1209,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I26" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="18"/>
@@ -1154,7 +1226,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A26:I34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A34:I42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="7"/>
@@ -1487,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1541,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1595,8 +1667,8 @@
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4">
-        <v>45994</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -1633,8 +1705,8 @@
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4">
-        <v>45994</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
@@ -1671,8 +1743,8 @@
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="4">
-        <v>45994</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
@@ -1709,8 +1781,8 @@
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="4">
-        <v>45994</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
@@ -1760,8 +1832,8 @@
       <c r="F17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="4">
-        <v>45998</v>
+      <c r="G17" s="3">
+        <v>46016</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -1811,8 +1883,8 @@
       <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="4">
-        <v>45994</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>17</v>
@@ -1846,92 +1918,92 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45994</v>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46016</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
         <v>8</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45998</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1939,8 +2011,8 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>42</v>
+      <c r="E28" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1948,28 +2020,16 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1978,7 +2038,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1986,42 +2046,42 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
@@ -2029,7 +2089,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2037,41 +2097,41 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="4">
-        <v>45998</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2080,7 +2140,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2088,92 +2148,92 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
         <v>12</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2182,7 +2242,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2190,41 +2250,41 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2233,7 +2293,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2241,41 +2301,41 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
-        <v>15</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2344,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2292,41 +2352,41 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
-        <v>16</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45998</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2335,7 +2395,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2344,23 +2404,23 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="4">
-        <v>45991</v>
+        <v>58</v>
+      </c>
+      <c r="G52" s="3">
+        <v>46016</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>17</v>
@@ -2372,51 +2432,191 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <v>17</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
         <v>18</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G62" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="4">
-        <v>45998</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
